--- a/BOM_2022.11.28.xlsx
+++ b/BOM_2022.11.28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Documents\GitHub\A-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Desktop\A-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE3BC8-8C64-4EA1-A724-AC0E3AB90098}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B043192-83A3-407B-9A96-04A1A4AEF130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="1460" windowWidth="19200" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_2022.11.28" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="417">
   <si>
     <t>Item</t>
   </si>
@@ -1225,12 +1225,248 @@
     <t>U1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL805</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 3.0 HUB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIO CODEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매링크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF40C-100DS-0.4V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM4 CONNECTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD02-19-M-MSMT-TR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI CONNECTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT9742SNGV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI POWER SWITCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG1012T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL805 POWER MOSFET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP22653W6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT LIMIT SWITCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V to 1.05V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25MHz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP3428KTTR-G1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2127K-ADJTRG1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스마트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리바바</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리익스프레스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1G005961000212</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3225</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SS-52000-003 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stewart Connector</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 3.0 STACKED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPD4EUSB30DQAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 2.0 STACKED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-52100-003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB 2.0 ESD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLM18AG221SN1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FERRITE BEAD  220 OHM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL05B104JO5NNNC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL21B106KOQNNNE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>74LVC1G07GW,125</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUF NON-INVERT 5.5V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5TSSOP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexperia USA Inc.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,6 +1659,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Nanum Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1630,7 +1873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1760,6 +2003,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1895,7 +2151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1989,8 +2245,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2315,38 +2586,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C451E77-EFF6-448E-BEA9-BCBE0C1FD5B8}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="17.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="23"/>
+    <col min="1" max="1" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.78515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.2109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.2109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.92578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="8.640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="28.75">
+      <c r="A1" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="3" spans="1:10" s="24" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2359,82 +2629,576 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:10" s="26" customFormat="1">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" s="26" customFormat="1">
+      <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" s="24" customFormat="1">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" s="24" customFormat="1">
+      <c r="A11" s="24">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" s="24" customFormat="1">
+      <c r="A12" s="24">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" s="24" customFormat="1">
+      <c r="A13" s="24">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1">
+      <c r="A14" s="24">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="I14" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" s="24" customFormat="1">
+      <c r="A15" s="24">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="I15" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" s="24" customFormat="1">
+      <c r="A16" s="24">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="I16" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="26">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>278</v>
-      </c>
+      <c r="C17" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="24">
+        <v>15</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="26">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="24">
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="26">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="24">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="26">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="26">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="24">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="26">
+        <v>24</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="24">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="26">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="24">
+        <v>27</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="26">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{9B9F395D-66B6-43DE-A370-68A7090E8D40}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{352FAD06-98D7-462F-9C7C-0DCE068A793E}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2446,31 +3210,31 @@
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.0703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="28.75">
+      <c r="A1" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +3260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2522,7 +3286,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2548,7 +3312,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2574,7 +3338,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -2596,7 +3360,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -2618,7 +3382,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="35.15">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -2640,7 +3404,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -2662,7 +3426,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -2684,7 +3448,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="87.9">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -2706,7 +3470,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -2728,7 +3492,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="35.15">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -2750,7 +3514,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -2772,7 +3536,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -2794,7 +3558,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -2816,7 +3580,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -2838,7 +3602,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -2860,7 +3624,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -2882,7 +3646,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -2904,7 +3668,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12">
       <c r="A22" s="24">
         <v>19</v>
       </c>
@@ -2930,7 +3694,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12">
       <c r="A23" s="24">
         <v>20</v>
       </c>
@@ -2956,7 +3720,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12">
       <c r="A24" s="24">
         <v>21</v>
       </c>
@@ -2982,7 +3746,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12">
       <c r="A25" s="24">
         <v>22</v>
       </c>
@@ -3008,7 +3772,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12">
       <c r="A26" s="24">
         <v>23</v>
       </c>
@@ -3034,7 +3798,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12">
       <c r="A27" s="24">
         <v>24</v>
       </c>
@@ -3060,7 +3824,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12">
       <c r="A28" s="24">
         <v>25</v>
       </c>
@@ -3086,7 +3850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12">
       <c r="A29" s="24">
         <v>26</v>
       </c>
@@ -3112,7 +3876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12">
       <c r="A30" s="24">
         <v>27</v>
       </c>
@@ -3138,7 +3902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12">
       <c r="A31" s="26">
         <v>28</v>
       </c>
@@ -3163,7 +3927,7 @@
       <c r="H31" s="24"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12">
       <c r="A32" s="26">
         <v>29</v>
       </c>
@@ -3187,7 +3951,7 @@
       </c>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="26">
         <v>30</v>
       </c>
@@ -3211,7 +3975,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="26">
         <v>31</v>
       </c>
@@ -3235,7 +3999,7 @@
       </c>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8">
       <c r="A35" s="24">
         <v>32</v>
       </c>
@@ -3261,7 +4025,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="24">
         <v>33</v>
       </c>
@@ -3281,7 +4045,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="24">
         <v>34</v>
       </c>
@@ -3307,7 +4071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="24">
         <v>35</v>
       </c>
@@ -3333,7 +4097,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="24">
         <v>36</v>
       </c>
@@ -3359,7 +4123,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="24">
         <v>37</v>
       </c>
@@ -3385,7 +4149,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="24">
         <v>38</v>
       </c>
@@ -3407,7 +4171,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="24">
         <v>39</v>
       </c>
@@ -3429,7 +4193,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" s="23" customFormat="1">
       <c r="A43" s="24">
         <v>40</v>
       </c>
@@ -3451,7 +4215,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="24">
         <v>41</v>
       </c>
@@ -3473,7 +4237,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="24">
         <v>42</v>
       </c>
@@ -3495,7 +4259,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="24">
         <v>43</v>
       </c>
@@ -3521,7 +4285,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="24">
         <v>44</v>
       </c>
@@ -3547,7 +4311,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="24">
         <v>45</v>
       </c>
@@ -3573,7 +4337,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="24">
         <v>46</v>
       </c>
@@ -3593,7 +4357,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="24">
         <v>47</v>
       </c>
@@ -3619,7 +4383,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="24">
         <v>48</v>
       </c>
@@ -3645,7 +4409,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="24">
         <v>49</v>
       </c>
@@ -3671,7 +4435,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="24">
         <v>50</v>
       </c>
@@ -3697,7 +4461,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="24">
         <v>51</v>
       </c>
@@ -3723,7 +4487,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -3749,7 +4513,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -3771,7 +4535,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="18">
         <v>54</v>
       </c>
@@ -3793,7 +4557,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="18">
         <v>55</v>
       </c>
@@ -3815,7 +4579,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="18">
         <v>56</v>
       </c>
@@ -3837,7 +4601,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="18">
         <v>57</v>
       </c>
@@ -3859,7 +4623,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="18">
         <v>58</v>
       </c>
@@ -3881,7 +4645,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="18">
         <v>59</v>
       </c>
@@ -3903,7 +4667,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="18">
         <v>60</v>
       </c>
@@ -3925,7 +4689,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="18">
         <v>61</v>
       </c>
@@ -3947,7 +4711,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="18">
         <v>62</v>
       </c>
@@ -3969,7 +4733,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="18">
         <v>63</v>
       </c>
@@ -3991,7 +4755,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="18">
         <v>64</v>
       </c>
@@ -4013,7 +4777,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="18">
         <v>65</v>
       </c>
@@ -4035,7 +4799,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="18">
         <v>66</v>
       </c>
@@ -4057,7 +4821,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="18">
         <v>67</v>
       </c>
@@ -4079,7 +4843,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="18">
         <v>68</v>
       </c>
@@ -4101,7 +4865,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -4123,7 +4887,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="18">
         <v>70</v>
       </c>
@@ -4145,7 +4909,7 @@
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="18">
         <v>71</v>
       </c>
@@ -4167,7 +4931,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="18">
         <v>72</v>
       </c>
@@ -4189,7 +4953,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="18">
         <v>73</v>
       </c>
@@ -4211,7 +4975,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="18">
         <v>74</v>
       </c>
@@ -4233,7 +4997,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="18">
         <v>75</v>
       </c>
@@ -4255,7 +5019,7 @@
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="18">
         <v>76</v>
       </c>
@@ -4277,7 +5041,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="18">
         <v>77</v>
       </c>
@@ -4299,7 +5063,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="18">
         <v>78</v>
       </c>
@@ -4321,7 +5085,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -4345,7 +5109,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -4365,7 +5129,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -4391,7 +5155,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -4417,7 +5181,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -4443,7 +5207,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -4465,7 +5229,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -4491,7 +5255,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -4515,7 +5279,7 @@
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -4541,7 +5305,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -4567,7 +5331,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -4591,7 +5355,7 @@
       </c>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -4617,7 +5381,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -4643,7 +5407,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -4669,7 +5433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -4695,7 +5459,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -4721,7 +5485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -4747,7 +5511,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -4773,7 +5537,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8">
       <c r="A100" s="8">
         <v>97</v>
       </c>

--- a/BOM_2022.11.28.xlsx
+++ b/BOM_2022.11.28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Desktop\A-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh\Documents\GitHub\A-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B043192-83A3-407B-9A96-04A1A4AEF130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F747B417-9EA2-4758-B36C-B26674F9C926}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15200" yWindow="3110" windowWidth="19200" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_2022.11.28" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="428">
   <si>
     <t>Item</t>
   </si>
@@ -1461,12 +1461,56 @@
     <t>Nexperia USA Inc.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>JK0-0177NL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45 / 1000Mbps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX_503398-1892</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD-CARD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1~C80</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C81~C100</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 항목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30EA 구매완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10EA 구매완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,14 +1705,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Nanum Gothic"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1872,8 +1925,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2016,6 +2075,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2151,7 +2221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2251,17 +2321,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2586,615 +2686,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C451E77-EFF6-448E-BEA9-BCBE0C1FD5B8}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="17.600000000000001"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.78515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.2109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="16.92578125" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="8.640625" style="23"/>
+    <col min="1" max="1" width="15" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="16.9140625" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.75">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.45">
+      <c r="B1" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="24" customFormat="1">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G3" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1">
-      <c r="A4" s="26">
-        <v>1</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1">
-      <c r="A5" s="26">
+      <c r="H4" s="28"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E5" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" s="26" customFormat="1">
-      <c r="A6" s="26">
+      <c r="H5" s="28"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="36">
         <v>3</v>
       </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1">
-      <c r="A7" s="24">
+      <c r="H6" s="32"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="24">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" s="24" customFormat="1">
-      <c r="A8" s="24">
+      <c r="H7" s="7"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="24">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" s="24" customFormat="1">
-      <c r="A9" s="24">
+      <c r="H8" s="7"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:10" s="24" customFormat="1">
-      <c r="A10" s="24">
+      <c r="H9" s="7"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="24">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" s="24" customFormat="1">
-      <c r="A11" s="24">
+      <c r="H10" s="7"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" s="24" customFormat="1">
-      <c r="A12" s="24">
+      <c r="H11" s="7"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
-        <v>1</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" s="24" customFormat="1">
-      <c r="A13" s="24">
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="24">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" s="24" customFormat="1">
-      <c r="A14" s="24">
+      <c r="H13" s="7"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="24">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="7"/>
+      <c r="J14" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" s="24" customFormat="1">
-      <c r="A15" s="24">
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="24">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
-        <v>1</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="7"/>
+      <c r="J15" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" s="24" customFormat="1">
-      <c r="A16" s="24">
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="24">
         <v>13</v>
       </c>
-      <c r="B16" s="24">
-        <v>1</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="F16" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="7"/>
+      <c r="J16" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="26">
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="45"/>
+      <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="B17" s="26">
+      <c r="C17" s="26">
         <v>2</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="G17" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="26" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="24">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="45"/>
+      <c r="B18" s="24">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="24">
+        <v>80</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="26">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="45"/>
+      <c r="B19" s="26">
         <v>16</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="24">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="24">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="45"/>
+      <c r="B20" s="24">
         <v>17</v>
       </c>
-      <c r="B20" s="24">
-        <v>1</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="26">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="36">
         <v>18</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="24">
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="46"/>
+      <c r="B22" s="24">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="26">
-        <v>20</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="26">
-        <v>22</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="24">
-        <v>23</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="26">
-        <v>24</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="24">
-        <v>25</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="26">
-        <v>26</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="24">
-        <v>27</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="26">
-        <v>28</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="J22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3210,31 +3234,31 @@
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.0703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.75">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3284,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3312,7 +3336,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3338,7 +3362,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -3360,7 +3384,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -3382,7 +3406,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="35.15">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -3404,7 +3428,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -3426,7 +3450,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -3448,7 +3472,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="87.9">
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -3470,7 +3494,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -3492,7 +3516,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="35.15">
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -3514,7 +3538,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -3536,7 +3560,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -3558,7 +3582,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -3580,7 +3604,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -3602,7 +3626,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -3624,7 +3648,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3646,7 +3670,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -3668,7 +3692,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="24">
         <v>19</v>
       </c>
@@ -3694,7 +3718,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="24">
         <v>20</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="24">
         <v>21</v>
       </c>
@@ -3746,7 +3770,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="24">
         <v>22</v>
       </c>
@@ -3772,7 +3796,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="24">
         <v>23</v>
       </c>
@@ -3798,7 +3822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="24">
         <v>24</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
         <v>25</v>
       </c>
@@ -3850,7 +3874,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="24">
         <v>26</v>
       </c>
@@ -3876,7 +3900,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="24">
         <v>27</v>
       </c>
@@ -3902,7 +3926,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="26">
         <v>28</v>
       </c>
@@ -3927,7 +3951,7 @@
       <c r="H31" s="24"/>
       <c r="L31" s="23"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="26">
         <v>29</v>
       </c>
@@ -3951,7 +3975,7 @@
       </c>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="26">
         <v>30</v>
       </c>
@@ -3975,7 +3999,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="26">
         <v>31</v>
       </c>
@@ -3999,7 +4023,7 @@
       </c>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="24">
         <v>32</v>
       </c>
@@ -4025,7 +4049,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="24">
         <v>33</v>
       </c>
@@ -4045,7 +4069,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="24">
         <v>34</v>
       </c>
@@ -4071,7 +4095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="24">
         <v>35</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="24">
         <v>36</v>
       </c>
@@ -4123,7 +4147,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="24">
         <v>37</v>
       </c>
@@ -4149,7 +4173,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="24">
         <v>38</v>
       </c>
@@ -4171,7 +4195,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="24">
         <v>39</v>
       </c>
@@ -4193,7 +4217,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8" s="23" customFormat="1">
+    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="24">
         <v>40</v>
       </c>
@@ -4215,7 +4239,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="24">
         <v>41</v>
       </c>
@@ -4237,7 +4261,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="24">
         <v>42</v>
       </c>
@@ -4259,7 +4283,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="24">
         <v>43</v>
       </c>
@@ -4285,7 +4309,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="24">
         <v>44</v>
       </c>
@@ -4311,7 +4335,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="24">
         <v>45</v>
       </c>
@@ -4337,7 +4361,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="24">
         <v>46</v>
       </c>
@@ -4357,7 +4381,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="24">
         <v>47</v>
       </c>
@@ -4383,7 +4407,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="24">
         <v>48</v>
       </c>
@@ -4409,7 +4433,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="24">
         <v>49</v>
       </c>
@@ -4435,7 +4459,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="24">
         <v>50</v>
       </c>
@@ -4461,7 +4485,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="24">
         <v>51</v>
       </c>
@@ -4487,7 +4511,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -4513,7 +4537,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -4535,7 +4559,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="18">
         <v>54</v>
       </c>
@@ -4557,7 +4581,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="18">
         <v>55</v>
       </c>
@@ -4579,7 +4603,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="18">
         <v>56</v>
       </c>
@@ -4601,7 +4625,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="18">
         <v>57</v>
       </c>
@@ -4623,7 +4647,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="18">
         <v>58</v>
       </c>
@@ -4645,7 +4669,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="18">
         <v>59</v>
       </c>
@@ -4667,7 +4691,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="18">
         <v>60</v>
       </c>
@@ -4689,7 +4713,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="18">
         <v>61</v>
       </c>
@@ -4711,7 +4735,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="18">
         <v>62</v>
       </c>
@@ -4733,7 +4757,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="18">
         <v>63</v>
       </c>
@@ -4755,7 +4779,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="18">
         <v>64</v>
       </c>
@@ -4777,7 +4801,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="18">
         <v>65</v>
       </c>
@@ -4799,7 +4823,7 @@
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="18">
         <v>66</v>
       </c>
@@ -4821,7 +4845,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="18">
         <v>67</v>
       </c>
@@ -4843,7 +4867,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="18">
         <v>68</v>
       </c>
@@ -4865,7 +4889,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -4887,7 +4911,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="18">
         <v>70</v>
       </c>
@@ -4909,7 +4933,7 @@
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="18">
         <v>71</v>
       </c>
@@ -4931,7 +4955,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="18">
         <v>72</v>
       </c>
@@ -4953,7 +4977,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="18">
         <v>73</v>
       </c>
@@ -4975,7 +4999,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="18">
         <v>74</v>
       </c>
@@ -4997,7 +5021,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="18">
         <v>75</v>
       </c>
@@ -5019,7 +5043,7 @@
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="18">
         <v>76</v>
       </c>
@@ -5041,7 +5065,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="18">
         <v>77</v>
       </c>
@@ -5063,7 +5087,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="18">
         <v>78</v>
       </c>
@@ -5085,7 +5109,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="8">
         <v>79</v>
       </c>
@@ -5109,7 +5133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="8">
         <v>80</v>
       </c>
@@ -5129,7 +5153,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="8">
         <v>81</v>
       </c>
@@ -5155,7 +5179,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="8">
         <v>82</v>
       </c>
@@ -5181,7 +5205,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="8">
         <v>83</v>
       </c>
@@ -5207,7 +5231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="8">
         <v>84</v>
       </c>
@@ -5229,7 +5253,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="8">
         <v>85</v>
       </c>
@@ -5255,7 +5279,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="8">
         <v>86</v>
       </c>
@@ -5279,7 +5303,7 @@
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="8">
         <v>87</v>
       </c>
@@ -5305,7 +5329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="8">
         <v>88</v>
       </c>
@@ -5331,7 +5355,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="8">
         <v>89</v>
       </c>
@@ -5355,7 +5379,7 @@
       </c>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="8">
         <v>90</v>
       </c>
@@ -5381,7 +5405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="8">
         <v>91</v>
       </c>
@@ -5407,7 +5431,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="8">
         <v>92</v>
       </c>
@@ -5433,7 +5457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="8">
         <v>93</v>
       </c>
@@ -5459,7 +5483,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="8">
         <v>94</v>
       </c>
@@ -5485,7 +5509,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
         <v>95</v>
       </c>
@@ -5511,7 +5535,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
         <v>96</v>
       </c>
@@ -5537,7 +5561,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="8">
         <v>97</v>
       </c>
